--- a/df_clusterizado.xlsx
+++ b/df_clusterizado.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92ca9ff1cf61ae79/Escritorio/data mining/Proyecto_2/Proyecto_unsupervised_learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0CDBC4A-02FF-4167-9C64-E8497FF283C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{F0CDBC4A-02FF-4167-9C64-E8497FF283C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E75058E7-16E8-4A28-814A-0D426E26BC4F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B61F6142-860F-4F03-9638-0AC729C393F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B61F6142-860F-4F03-9638-0AC729C393F9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="3" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="4" r:id="rId2"/>
-    <sheet name="df_clusterizado" sheetId="1" r:id="rId3"/>
+    <sheet name="df_clusterizado" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId4"/>
-    <pivotCache cacheId="26" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -367,22 +367,22 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Suma de rebounds_per_game</t>
+    <t>Promedio de rebounds_per_game</t>
   </si>
   <si>
-    <t>Suma de assists_per_game</t>
+    <t>Promedio de age</t>
   </si>
   <si>
-    <t>Suma de points_per_game</t>
+    <t>Promedio de assists_per_game</t>
   </si>
   <si>
-    <t>Suma de age</t>
+    <t>Promedio de points_per_game</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -875,13 +875,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -929,7 +928,9 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{7469189A-7692-44AD-8F49-DC95C78659AF}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2474,6 +2475,342 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="50"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="52"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="53"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="54"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="55"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4990,6 +5327,62 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="60"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="61"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -6348,6 +6741,118 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -6364,7 +6869,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de rebounds_per_game</c:v>
+                  <c:v>Promedio de rebounds_per_game</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6412,22 +6917,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>35.199999999999996</c:v>
+                  <c:v>2.7076923076923074</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.700000000000003</c:v>
+                  <c:v>6.5400000000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.300000000000004</c:v>
+                  <c:v>9.2600000000000016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.1</c:v>
+                  <c:v>3.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.2</c:v>
+                  <c:v>4.1833333333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6447,7 +6952,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de age</c:v>
+                  <c:v>Promedio de age</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6495,22 +7000,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>315</c:v>
+                  <c:v>24.23076923076923</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>124</c:v>
+                  <c:v>24.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>168</c:v>
+                  <c:v>33.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>131</c:v>
+                  <c:v>26.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>306</c:v>
+                  <c:v>30.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>271</c:v>
+                  <c:v>22.583333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6530,7 +7035,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de assists_per_game</c:v>
+                  <c:v>Promedio de assists_per_game</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6578,22 +7083,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11.299999999999997</c:v>
+                  <c:v>0.86923076923076903</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>7.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.900000000000002</c:v>
+                  <c:v>6.1800000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.899999999999999</c:v>
+                  <c:v>3.9799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.7</c:v>
+                  <c:v>2.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.5</c:v>
+                  <c:v>2.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6613,7 +7118,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de points_per_game</c:v>
+                  <c:v>Promedio de points_per_game</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6661,22 +7166,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>61.900000000000006</c:v>
+                  <c:v>4.7615384615384624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>142.29999999999998</c:v>
+                  <c:v>28.459999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>146.70000000000002</c:v>
+                  <c:v>29.340000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146.5</c:v>
+                  <c:v>29.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86.7</c:v>
+                  <c:v>8.67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>144.89999999999998</c:v>
+                  <c:v>12.074999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8580,16 +9085,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11812</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>107042</xdr:rowOff>
+      <xdr:rowOff>60157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9071</xdr:colOff>
+      <xdr:colOff>279419</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>87992</xdr:rowOff>
+      <xdr:rowOff>41106</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8616,16 +9121,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235858</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>446315</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8651,6 +9156,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10799,7 +11308,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{164FCDAE-D2FF-43E0-9EDF-38C2778324C7}" name="TablaDinámica2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{164FCDAE-D2FF-43E0-9EDF-38C2778324C7}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:H3" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0">
@@ -11090,7 +11599,7 @@
   <dataFields count="1">
     <dataField name="Cuenta de name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="6">
+  <chartFormats count="12">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -11145,445 +11654,74 @@
         </references>
       </pivotArea>
     </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{76A5B539-F12D-4F0A-9B28-1DCC6B90B7DF}" name="TablaDinámica4" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A19:E26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0">
-      <items count="51">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="51">
-        <item x="0"/>
-        <item x="44"/>
-        <item x="47"/>
-        <item x="1"/>
-        <item x="26"/>
-        <item x="2"/>
-        <item x="34"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="3"/>
-        <item x="41"/>
-        <item x="4"/>
-        <item x="43"/>
-        <item x="38"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="36"/>
-        <item x="7"/>
-        <item x="39"/>
-        <item x="8"/>
-        <item x="48"/>
-        <item x="27"/>
-        <item x="9"/>
-        <item x="31"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="49"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="29"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="45"/>
-        <item x="25"/>
-        <item x="30"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="42"/>
-        <item x="33"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="32"/>
-        <item x="46"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="33">
-        <item x="19"/>
-        <item x="5"/>
-        <item x="31"/>
-        <item x="0"/>
-        <item x="16"/>
-        <item x="2"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="28"/>
-        <item x="8"/>
-        <item x="25"/>
-        <item x="4"/>
-        <item x="26"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="29"/>
-        <item x="11"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="30"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="27"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="18"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="20"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="51">
-        <item x="25"/>
-        <item x="0"/>
-        <item x="46"/>
-        <item x="11"/>
-        <item x="30"/>
-        <item x="36"/>
-        <item x="34"/>
-        <item x="12"/>
-        <item x="27"/>
-        <item x="40"/>
-        <item x="28"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="26"/>
-        <item x="42"/>
-        <item x="8"/>
-        <item x="33"/>
-        <item x="5"/>
-        <item x="32"/>
-        <item x="37"/>
-        <item x="31"/>
-        <item x="47"/>
-        <item x="49"/>
-        <item x="19"/>
-        <item x="38"/>
-        <item x="4"/>
-        <item x="48"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="39"/>
-        <item x="41"/>
-        <item x="35"/>
-        <item x="23"/>
-        <item x="16"/>
-        <item x="9"/>
-        <item x="44"/>
-        <item x="29"/>
-        <item x="14"/>
-        <item x="3"/>
-        <item x="24"/>
-        <item x="15"/>
-        <item x="21"/>
-        <item x="10"/>
-        <item x="22"/>
-        <item x="1"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="20"/>
-        <item x="13"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item sd="0" x="0"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="1"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="13"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="Suma de rebounds_per_game" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Suma de age" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Suma de assists_per_game" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Suma de points_per_game" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="13">
-    <chartFormat chart="5" format="0" series="1">
+    <chartFormat chart="0" format="50" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="51" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="52" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="5" format="1" series="1">
+    <chartFormat chart="0" format="53" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="5" format="3" series="1">
+    <chartFormat chart="0" format="54" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
+            <x v="0"/>
           </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
+          <reference field="12" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="5" format="5" series="1">
+    <chartFormat chart="0" format="55" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
             <x v="0"/>
           </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
+          <reference field="12" count="1" selected="0">
             <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -11601,8 +11739,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58E228DF-FBFE-45D3-A467-8C30CDC0AC7B}" name="TablaDinámica3" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58E228DF-FBFE-45D3-A467-8C30CDC0AC7B}" name="TablaDinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A1:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0">
@@ -11919,7 +12057,7 @@
   <dataFields count="1">
     <dataField name="Cuenta de name" fld="1" subtotal="count" baseField="10" baseItem="9"/>
   </dataFields>
-  <chartFormats count="26">
+  <chartFormats count="22">
     <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -12097,81 +12235,6 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="62">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="63">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="64">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="65">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="66">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
     <chartFormat chart="2" format="71" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -12240,6 +12303,461 @@
           </reference>
           <reference field="13" count="1" selected="0">
             <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="61" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{76A5B539-F12D-4F0A-9B28-1DCC6B90B7DF}" name="TablaDinámica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="A19:E26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0">
+      <items count="51">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="51">
+        <item x="0"/>
+        <item x="44"/>
+        <item x="47"/>
+        <item x="1"/>
+        <item x="26"/>
+        <item x="2"/>
+        <item x="34"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="3"/>
+        <item x="41"/>
+        <item x="4"/>
+        <item x="43"/>
+        <item x="38"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="36"/>
+        <item x="7"/>
+        <item x="39"/>
+        <item x="8"/>
+        <item x="48"/>
+        <item x="27"/>
+        <item x="9"/>
+        <item x="31"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="49"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="29"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="45"/>
+        <item x="25"/>
+        <item x="30"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="42"/>
+        <item x="33"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="32"/>
+        <item x="46"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="33">
+        <item x="19"/>
+        <item x="5"/>
+        <item x="31"/>
+        <item x="0"/>
+        <item x="16"/>
+        <item x="2"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="28"/>
+        <item x="8"/>
+        <item x="25"/>
+        <item x="4"/>
+        <item x="26"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="29"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="30"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="27"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="18"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="51">
+        <item x="25"/>
+        <item x="0"/>
+        <item x="46"/>
+        <item x="11"/>
+        <item x="30"/>
+        <item x="36"/>
+        <item x="34"/>
+        <item x="12"/>
+        <item x="27"/>
+        <item x="40"/>
+        <item x="28"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="26"/>
+        <item x="42"/>
+        <item x="8"/>
+        <item x="33"/>
+        <item x="5"/>
+        <item x="32"/>
+        <item x="37"/>
+        <item x="31"/>
+        <item x="47"/>
+        <item x="49"/>
+        <item x="19"/>
+        <item x="38"/>
+        <item x="4"/>
+        <item x="48"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="39"/>
+        <item x="41"/>
+        <item x="35"/>
+        <item x="23"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="44"/>
+        <item x="29"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="24"/>
+        <item x="15"/>
+        <item x="21"/>
+        <item x="10"/>
+        <item x="22"/>
+        <item x="1"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="13"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="1"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="13"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Promedio de rebounds_per_game" fld="4" subtotal="average" baseField="13" baseItem="0"/>
+    <dataField name="Promedio de age" fld="2" subtotal="average" baseField="13" baseItem="0"/>
+    <dataField name="Promedio de assists_per_game" fld="5" subtotal="average" baseField="13" baseItem="0"/>
+    <dataField name="Promedio de points_per_game" fld="6" subtotal="average" baseField="13" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="13">
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -12573,6 +13091,2281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5325BA71-8AED-4306-B8F5-98E33613C031}">
+  <dimension ref="A1:N51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" style="3"/>
+    <col min="2" max="2" width="20.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1796875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.54918032786885296</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="F3" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.2203856749311299</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20.6</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G4" s="3">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.76213592233009697</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3">
+        <v>34.6</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>27.8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.0924855491329499</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.65254237288135597</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3">
+        <v>32.1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="G8" s="3">
+        <v>31.1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.5140186915887901</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.77854671280276799</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.64550264550264502</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3">
+        <v>35.9</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>26.6</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.03064066852368</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3">
+        <v>36.9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G12" s="3">
+        <v>30.1</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.17886178861789</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.55128205128205099</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3">
+        <v>22.7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.57268722466960398</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3">
+        <v>34.6</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>33.1</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.3728323699422</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="3">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.0821917808219199</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3">
+        <v>34</v>
+      </c>
+      <c r="D17" s="3">
+        <v>35.6</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.1460674157303401</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="3">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3">
+        <v>37.4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>27.1</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.00802139037433</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3">
+        <v>35.5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F19" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="G19" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1.23943661971831</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="3">
+        <v>23</v>
+      </c>
+      <c r="D20" s="3">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="F20" s="3">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
+        <v>32.4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1.35359116022099</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="3">
+        <v>31</v>
+      </c>
+      <c r="D21" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G21" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.70344827586206904</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="3">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E22" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="F22" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G22" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1.36795252225519</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="3">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3">
+        <v>35.5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>31.4</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1.1746478873239401</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="3">
+        <v>34</v>
+      </c>
+      <c r="D24" s="3">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="G24" s="3">
+        <v>29.4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1.20461095100865</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="3">
+        <v>25</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.92857142857142905</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="3">
+        <v>24</v>
+      </c>
+      <c r="D26" s="3">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G26" s="3">
+        <v>26.2</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1.1321839080459799</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="3">
+        <v>21</v>
+      </c>
+      <c r="D27" s="3">
+        <v>28.3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.54416961130742003</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="3">
+        <v>30</v>
+      </c>
+      <c r="D28" s="3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="G28" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.61274509803921595</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="3">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>15.1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.58940397350993401</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="3">
+        <v>22</v>
+      </c>
+      <c r="D30" s="3">
+        <v>29.8</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.60402684563758402</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="3">
+        <v>25</v>
+      </c>
+      <c r="D31" s="3">
+        <v>34.4</v>
+      </c>
+      <c r="E31" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="G31" s="3">
+        <v>25.6</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1.04941860465116</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="3">
+        <v>22</v>
+      </c>
+      <c r="D32" s="3">
+        <v>29.9</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.55518394648829394</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="3">
+        <v>20</v>
+      </c>
+      <c r="D33" s="3">
+        <v>18.7</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="G33" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.66310160427807496</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="3">
+        <v>30</v>
+      </c>
+      <c r="D34" s="3">
+        <v>26.3</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="G34" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.65399239543726195</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="3">
+        <v>30</v>
+      </c>
+      <c r="D35" s="3">
+        <v>30.3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="G35" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.65016501650165004</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="3">
+        <v>21</v>
+      </c>
+      <c r="D36" s="3">
+        <v>18</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G36" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0.57222222222222197</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="3">
+        <v>32</v>
+      </c>
+      <c r="D37" s="3">
+        <v>22.2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="G37" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.86936936936936904</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="3">
+        <v>24</v>
+      </c>
+      <c r="D38" s="3">
+        <v>25.9</v>
+      </c>
+      <c r="E38" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="G38" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.55598455598455598</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N38" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="3">
+        <v>25</v>
+      </c>
+      <c r="D39" s="3">
+        <v>31.7</v>
+      </c>
+      <c r="E39" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="G39" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.66246056782334395</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="3">
+        <v>27</v>
+      </c>
+      <c r="D40" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="G40" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.71223021582733803</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="3">
+        <v>20</v>
+      </c>
+      <c r="D41" s="3">
+        <v>31.1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="G41" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.81672025723472697</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N41" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="3">
+        <v>24</v>
+      </c>
+      <c r="D42" s="3">
+        <v>27.9</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="G42" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.60215053763440896</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="3">
+        <v>22</v>
+      </c>
+      <c r="D43" s="3">
+        <v>31</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="G43" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N43" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="3">
+        <v>27</v>
+      </c>
+      <c r="D44" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.64197530864197505</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="3">
+        <v>31</v>
+      </c>
+      <c r="D45" s="3">
+        <v>19.2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G45" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0.609375</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N45" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="3">
+        <v>29</v>
+      </c>
+      <c r="D46" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>6</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1.0314960629921299</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="3">
+        <v>24</v>
+      </c>
+      <c r="D47" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G47" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0.61077844311377205</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="3">
+        <v>28</v>
+      </c>
+      <c r="D48" s="3">
+        <v>16</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N48" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="3">
+        <v>24</v>
+      </c>
+      <c r="D49" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="G49" s="3">
+        <v>13</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N49" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="3">
+        <v>21</v>
+      </c>
+      <c r="D50" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="E50" s="3">
+        <v>4</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="G50" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0.72483221476510096</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="3">
+        <v>27</v>
+      </c>
+      <c r="D51" s="3">
+        <v>21.7</v>
+      </c>
+      <c r="E51" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G51" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0.68663594470046097</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N51" s="3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9000719A-E088-4B14-851F-8775BD82923E}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -12670,25 +15463,25 @@
       <c r="A3" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>13</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3">
         <v>12</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3">
         <v>50</v>
       </c>
     </row>
@@ -12698,22 +15491,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D4DD31-98BF-4D21-8B68-32B7BA6EC8EC}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="A12" zoomScale="101" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.81640625" bestFit="1" customWidth="1"/>
@@ -12840,20 +15632,19 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
+      <c r="G3">
         <v>13</v>
       </c>
     </row>
@@ -12861,16 +15652,13 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>5</v>
       </c>
     </row>
@@ -12878,16 +15666,13 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>5</v>
       </c>
     </row>
@@ -12895,16 +15680,13 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>5</v>
       </c>
     </row>
@@ -12912,18 +15694,16 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>10</v>
       </c>
     </row>
@@ -12931,18 +15711,16 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>12</v>
       </c>
     </row>
@@ -12950,22 +15728,22 @@
       <c r="A9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>9</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>18</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>10</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>7</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>50</v>
       </c>
     </row>
@@ -12977,2411 +15755,136 @@
         <v>113</v>
       </c>
       <c r="C19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
         <v>116</v>
-      </c>
-      <c r="D19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>1</v>
       </c>
-      <c r="B20" s="3">
-        <v>35.199999999999996</v>
-      </c>
-      <c r="C20" s="3">
-        <v>315</v>
-      </c>
-      <c r="D20" s="3">
-        <v>11.299999999999997</v>
-      </c>
-      <c r="E20" s="3">
-        <v>61.900000000000006</v>
+      <c r="B20">
+        <v>2.7076923076923074</v>
+      </c>
+      <c r="C20">
+        <v>24.23076923076923</v>
+      </c>
+      <c r="D20">
+        <v>0.86923076923076903</v>
+      </c>
+      <c r="E20">
+        <v>4.7615384615384624</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2</v>
       </c>
-      <c r="B21" s="3">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="C21" s="3">
-        <v>124</v>
-      </c>
-      <c r="D21" s="3">
-        <v>39</v>
-      </c>
-      <c r="E21" s="3">
-        <v>142.29999999999998</v>
+      <c r="B21">
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="C21">
+        <v>24.8</v>
+      </c>
+      <c r="D21">
+        <v>7.8</v>
+      </c>
+      <c r="E21">
+        <v>28.459999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>3</v>
       </c>
-      <c r="B22" s="3">
-        <v>31</v>
-      </c>
-      <c r="C22" s="3">
-        <v>168</v>
-      </c>
-      <c r="D22" s="3">
-        <v>30.900000000000002</v>
-      </c>
-      <c r="E22" s="3">
-        <v>146.70000000000002</v>
+      <c r="B22">
+        <v>6.2</v>
+      </c>
+      <c r="C22">
+        <v>33.6</v>
+      </c>
+      <c r="D22">
+        <v>6.1800000000000006</v>
+      </c>
+      <c r="E22">
+        <v>29.340000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>4</v>
       </c>
-      <c r="B23" s="3">
-        <v>46.300000000000004</v>
-      </c>
-      <c r="C23" s="3">
-        <v>131</v>
-      </c>
-      <c r="D23" s="3">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="E23" s="3">
-        <v>146.5</v>
+      <c r="B23">
+        <v>9.2600000000000016</v>
+      </c>
+      <c r="C23">
+        <v>26.2</v>
+      </c>
+      <c r="D23">
+        <v>3.9799999999999995</v>
+      </c>
+      <c r="E23">
+        <v>29.3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>5</v>
       </c>
-      <c r="B24" s="3">
-        <v>32.1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>306</v>
-      </c>
-      <c r="D24" s="3">
-        <v>20.7</v>
-      </c>
-      <c r="E24" s="3">
-        <v>86.7</v>
+      <c r="B24">
+        <v>3.21</v>
+      </c>
+      <c r="C24">
+        <v>30.6</v>
+      </c>
+      <c r="D24">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E24">
+        <v>8.67</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>6</v>
       </c>
-      <c r="B25" s="3">
-        <v>50.2</v>
-      </c>
-      <c r="C25" s="3">
-        <v>271</v>
-      </c>
-      <c r="D25" s="3">
-        <v>28.5</v>
-      </c>
-      <c r="E25" s="3">
-        <v>144.89999999999998</v>
+      <c r="B25">
+        <v>4.1833333333333336</v>
+      </c>
+      <c r="C25">
+        <v>22.583333333333332</v>
+      </c>
+      <c r="D25">
+        <v>2.375</v>
+      </c>
+      <c r="E25">
+        <v>12.074999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="3">
-        <v>227.5</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1315</v>
-      </c>
-      <c r="D26" s="3">
-        <v>150.30000000000001</v>
-      </c>
-      <c r="E26" s="3">
-        <v>729</v>
+      <c r="B26">
+        <v>4.549999999999998</v>
+      </c>
+      <c r="C26">
+        <v>26.3</v>
+      </c>
+      <c r="D26">
+        <v>3.0059999999999989</v>
+      </c>
+      <c r="E26">
+        <v>14.580000000000005</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5325BA71-8AED-4306-B8F5-98E33613C031}">
-  <dimension ref="A1:N51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.90625" style="4"/>
-    <col min="2" max="2" width="20.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1796875" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4">
-        <v>12.2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G2" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.54918032786885296</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4">
-        <v>32</v>
-      </c>
-      <c r="D3" s="4">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="E3" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="F3" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="G3" s="4">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1.2203856749311299</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="E4" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G4" s="4">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.76213592233009697</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4">
-        <v>34.6</v>
-      </c>
-      <c r="E5" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="F5" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="G5" s="4">
-        <v>27.8</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1.0924855491329499</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4">
-        <v>9.1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="G6" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.71428571428571397</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="4">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.65254237288135597</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="4">
-        <v>28</v>
-      </c>
-      <c r="D8" s="4">
-        <v>32.1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="F8" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="G8" s="4">
-        <v>31.1</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1.5140186915887901</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="4">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4">
-        <v>28.9</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="G9" s="4">
-        <v>14.9</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0.77854671280276799</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="4">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G10" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.64550264550264502</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="4">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4">
-        <v>35.9</v>
-      </c>
-      <c r="E11" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="F11" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G11" s="4">
-        <v>26.6</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="4">
-        <v>1.03064066852368</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="4">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4">
-        <v>36.9</v>
-      </c>
-      <c r="E12" s="4">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F12" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G12" s="4">
-        <v>30.1</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1.17886178861789</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="4">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4">
-        <v>15.6</v>
-      </c>
-      <c r="E13" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0.55128205128205099</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="4">
-        <v>35</v>
-      </c>
-      <c r="D14" s="4">
-        <v>22.7</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="F14" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="G14" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.57268722466960398</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="4">
-        <v>28</v>
-      </c>
-      <c r="D15" s="4">
-        <v>34.6</v>
-      </c>
-      <c r="E15" s="4">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F15" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="G15" s="4">
-        <v>33.1</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="4">
-        <v>1.3728323699422</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="4">
-        <v>20</v>
-      </c>
-      <c r="D16" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G16" s="4">
-        <v>5</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="4">
-        <v>1.0821917808219199</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="4">
-        <v>34</v>
-      </c>
-      <c r="D17" s="4">
-        <v>35.6</v>
-      </c>
-      <c r="E17" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="F17" s="4">
-        <v>5</v>
-      </c>
-      <c r="G17" s="4">
-        <v>29.1</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="4">
-        <v>1.1460674157303401</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="4">
-        <v>30</v>
-      </c>
-      <c r="D18" s="4">
-        <v>37.4</v>
-      </c>
-      <c r="E18" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F18" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="G18" s="4">
-        <v>27.1</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="4">
-        <v>1.00802139037433</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="4">
-        <v>38</v>
-      </c>
-      <c r="D19" s="4">
-        <v>35.5</v>
-      </c>
-      <c r="E19" s="4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F19" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="G19" s="4">
-        <v>28.9</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="4">
-        <v>1.23943661971831</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="4">
-        <v>23</v>
-      </c>
-      <c r="D20" s="4">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="E20" s="4">
-        <v>8.6</v>
-      </c>
-      <c r="F20" s="4">
-        <v>8</v>
-      </c>
-      <c r="G20" s="4">
-        <v>32.4</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" s="4">
-        <v>1.35359116022099</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="4">
-        <v>31</v>
-      </c>
-      <c r="D21" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="E21" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="G21" s="4">
-        <v>6.2</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0.70344827586206904</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="4">
-        <v>27</v>
-      </c>
-      <c r="D22" s="4">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="E22" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="F22" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G22" s="4">
-        <v>24.5</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="4">
-        <v>1.36795252225519</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="4">
-        <v>24</v>
-      </c>
-      <c r="D23" s="4">
-        <v>35.5</v>
-      </c>
-      <c r="E23" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="F23" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="G23" s="4">
-        <v>31.4</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="4">
-        <v>1.1746478873239401</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="4">
-        <v>34</v>
-      </c>
-      <c r="D24" s="4">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="E24" s="4">
-        <v>6.1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="G24" s="4">
-        <v>29.4</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="4">
-        <v>1.20461095100865</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="4">
-        <v>25</v>
-      </c>
-      <c r="D25" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0.92857142857142905</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="4">
-        <v>24</v>
-      </c>
-      <c r="D26" s="4">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="E26" s="4">
-        <v>3</v>
-      </c>
-      <c r="F26" s="4">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G26" s="4">
-        <v>26.2</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="4">
-        <v>1.1321839080459799</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N26" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="4">
-        <v>21</v>
-      </c>
-      <c r="D27" s="4">
-        <v>28.3</v>
-      </c>
-      <c r="E27" s="4">
-        <v>4</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="G27" s="4">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0.54416961130742003</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N27" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="4">
-        <v>30</v>
-      </c>
-      <c r="D28" s="4">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="E28" s="4">
-        <v>3</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="G28" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0.61274509803921595</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N28" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="4">
-        <v>22</v>
-      </c>
-      <c r="D29" s="4">
-        <v>15.1</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="G29" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0.58940397350993401</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="4">
-        <v>22</v>
-      </c>
-      <c r="D30" s="4">
-        <v>29.8</v>
-      </c>
-      <c r="E30" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="G30" s="4">
-        <v>12.2</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0.60402684563758402</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N30" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="4">
-        <v>25</v>
-      </c>
-      <c r="D31" s="4">
-        <v>34.4</v>
-      </c>
-      <c r="E31" s="4">
-        <v>8.6</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="G31" s="4">
-        <v>25.6</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K31" s="4">
-        <v>1.04941860465116</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N31" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="4">
-        <v>22</v>
-      </c>
-      <c r="D32" s="4">
-        <v>29.9</v>
-      </c>
-      <c r="E32" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="F32" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="G32" s="4">
-        <v>11.3</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0.55518394648829394</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N32" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="4">
-        <v>20</v>
-      </c>
-      <c r="D33" s="4">
-        <v>18.7</v>
-      </c>
-      <c r="E33" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="G33" s="4">
-        <v>5.9</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0.66310160427807496</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N33" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="4">
-        <v>30</v>
-      </c>
-      <c r="D34" s="4">
-        <v>26.3</v>
-      </c>
-      <c r="E34" s="4">
-        <v>3</v>
-      </c>
-      <c r="F34" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G34" s="4">
-        <v>10.7</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0.65399239543726195</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N34" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="4">
-        <v>30</v>
-      </c>
-      <c r="D35" s="4">
-        <v>30.3</v>
-      </c>
-      <c r="E35" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="F35" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="G35" s="4">
-        <v>14.4</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0.65016501650165004</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N35" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="4">
-        <v>21</v>
-      </c>
-      <c r="D36" s="4">
-        <v>18</v>
-      </c>
-      <c r="E36" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G36" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0.57222222222222197</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="4">
-        <v>32</v>
-      </c>
-      <c r="D37" s="4">
-        <v>22.2</v>
-      </c>
-      <c r="E37" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="F37" s="4">
-        <v>5.2</v>
-      </c>
-      <c r="G37" s="4">
-        <v>11.4</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0.86936936936936904</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N37" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="4">
-        <v>24</v>
-      </c>
-      <c r="D38" s="4">
-        <v>25.9</v>
-      </c>
-      <c r="E38" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="G38" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0.55598455598455598</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N38" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="4">
-        <v>25</v>
-      </c>
-      <c r="D39" s="4">
-        <v>31.7</v>
-      </c>
-      <c r="E39" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="G39" s="4">
-        <v>15.4</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0.66246056782334395</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N39" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="4">
-        <v>27</v>
-      </c>
-      <c r="D40" s="4">
-        <v>13.9</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="G40" s="4">
-        <v>7.1</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0.71223021582733803</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="4">
-        <v>20</v>
-      </c>
-      <c r="D41" s="4">
-        <v>31.1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="F41" s="4">
-        <v>5.2</v>
-      </c>
-      <c r="G41" s="4">
-        <v>16.3</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0.81672025723472697</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N41" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="4">
-        <v>24</v>
-      </c>
-      <c r="D42" s="4">
-        <v>27.9</v>
-      </c>
-      <c r="E42" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F42" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="G42" s="4">
-        <v>10.1</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0.60215053763440896</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N42" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
-        <v>42</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="4">
-        <v>22</v>
-      </c>
-      <c r="D43" s="4">
-        <v>31</v>
-      </c>
-      <c r="E43" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="F43" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="G43" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0.83870967741935498</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N43" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="4">
-        <v>27</v>
-      </c>
-      <c r="D44" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="F44" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="G44" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" s="4">
-        <v>0.64197530864197505</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N44" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
-        <v>44</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="4">
-        <v>31</v>
-      </c>
-      <c r="D45" s="4">
-        <v>19.2</v>
-      </c>
-      <c r="E45" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="G45" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0.609375</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N45" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A46" s="4">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="4">
-        <v>29</v>
-      </c>
-      <c r="D46" s="4">
-        <v>12.7</v>
-      </c>
-      <c r="E46" s="4">
-        <v>6.6</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G46" s="4">
-        <v>6</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="4">
-        <v>1.0314960629921299</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N46" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="4">
-        <v>24</v>
-      </c>
-      <c r="D47" s="4">
-        <v>16.7</v>
-      </c>
-      <c r="E47" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="G47" s="4">
-        <v>6.1</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" s="4">
-        <v>0.61077844311377205</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A48" s="4">
-        <v>47</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="4">
-        <v>28</v>
-      </c>
-      <c r="D48" s="4">
-        <v>16</v>
-      </c>
-      <c r="E48" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G48" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K48" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N48" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A49" s="4">
-        <v>48</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="4">
-        <v>24</v>
-      </c>
-      <c r="D49" s="4">
-        <v>28.8</v>
-      </c>
-      <c r="E49" s="4">
-        <v>3</v>
-      </c>
-      <c r="F49" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="G49" s="4">
-        <v>13</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K49" s="4">
-        <v>0.67361111111111105</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N49" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A50" s="4">
-        <v>49</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="4">
-        <v>21</v>
-      </c>
-      <c r="D50" s="4">
-        <v>14.9</v>
-      </c>
-      <c r="E50" s="4">
-        <v>4</v>
-      </c>
-      <c r="F50" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="G50" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K50" s="4">
-        <v>0.72483221476510096</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51" s="4">
-        <v>50</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="4">
-        <v>27</v>
-      </c>
-      <c r="D51" s="4">
-        <v>21.7</v>
-      </c>
-      <c r="E51" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="F51" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G51" s="4">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K51" s="4">
-        <v>0.68663594470046097</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N51" s="4">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/df_clusterizado.xlsx
+++ b/df_clusterizado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92ca9ff1cf61ae79/Escritorio/data mining/Proyecto_2/Proyecto_unsupervised_learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{F0CDBC4A-02FF-4167-9C64-E8497FF283C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E75058E7-16E8-4A28-814A-0D426E26BC4F}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{F0CDBC4A-02FF-4167-9C64-E8497FF283C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1013DF54-09E7-411F-A874-8C50A2A6E99B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B61F6142-860F-4F03-9638-0AC729C393F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{B61F6142-860F-4F03-9638-0AC729C393F9}"/>
   </bookViews>
   <sheets>
     <sheet name="df_clusterizado" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -11308,7 +11308,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{164FCDAE-D2FF-43E0-9EDF-38C2778324C7}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{164FCDAE-D2FF-43E0-9EDF-38C2778324C7}" name="TablaDinámica2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:H3" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0">
@@ -11740,7 +11740,450 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58E228DF-FBFE-45D3-A467-8C30CDC0AC7B}" name="TablaDinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{76A5B539-F12D-4F0A-9B28-1DCC6B90B7DF}" name="TablaDinámica4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="A19:E26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0">
+      <items count="51">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="51">
+        <item x="0"/>
+        <item x="44"/>
+        <item x="47"/>
+        <item x="1"/>
+        <item x="26"/>
+        <item x="2"/>
+        <item x="34"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="3"/>
+        <item x="41"/>
+        <item x="4"/>
+        <item x="43"/>
+        <item x="38"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="36"/>
+        <item x="7"/>
+        <item x="39"/>
+        <item x="8"/>
+        <item x="48"/>
+        <item x="27"/>
+        <item x="9"/>
+        <item x="31"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="49"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="29"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="45"/>
+        <item x="25"/>
+        <item x="30"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="42"/>
+        <item x="33"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="32"/>
+        <item x="46"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="33">
+        <item x="19"/>
+        <item x="5"/>
+        <item x="31"/>
+        <item x="0"/>
+        <item x="16"/>
+        <item x="2"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="28"/>
+        <item x="8"/>
+        <item x="25"/>
+        <item x="4"/>
+        <item x="26"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="29"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="30"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="27"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="18"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="51">
+        <item x="25"/>
+        <item x="0"/>
+        <item x="46"/>
+        <item x="11"/>
+        <item x="30"/>
+        <item x="36"/>
+        <item x="34"/>
+        <item x="12"/>
+        <item x="27"/>
+        <item x="40"/>
+        <item x="28"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="26"/>
+        <item x="42"/>
+        <item x="8"/>
+        <item x="33"/>
+        <item x="5"/>
+        <item x="32"/>
+        <item x="37"/>
+        <item x="31"/>
+        <item x="47"/>
+        <item x="49"/>
+        <item x="19"/>
+        <item x="38"/>
+        <item x="4"/>
+        <item x="48"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="39"/>
+        <item x="41"/>
+        <item x="35"/>
+        <item x="23"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="44"/>
+        <item x="29"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="24"/>
+        <item x="15"/>
+        <item x="21"/>
+        <item x="10"/>
+        <item x="22"/>
+        <item x="1"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="13"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="1"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="13"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Promedio de rebounds_per_game" fld="4" subtotal="average" baseField="13" baseItem="0"/>
+    <dataField name="Promedio de age" fld="2" subtotal="average" baseField="13" baseItem="0"/>
+    <dataField name="Promedio de assists_per_game" fld="5" subtotal="average" baseField="13" baseItem="0"/>
+    <dataField name="Promedio de points_per_game" fld="6" subtotal="average" baseField="13" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="13">
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58E228DF-FBFE-45D3-A467-8C30CDC0AC7B}" name="TablaDinámica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A1:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0">
@@ -12332,449 +12775,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{76A5B539-F12D-4F0A-9B28-1DCC6B90B7DF}" name="TablaDinámica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A19:E26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0">
-      <items count="51">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="51">
-        <item x="0"/>
-        <item x="44"/>
-        <item x="47"/>
-        <item x="1"/>
-        <item x="26"/>
-        <item x="2"/>
-        <item x="34"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="3"/>
-        <item x="41"/>
-        <item x="4"/>
-        <item x="43"/>
-        <item x="38"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="36"/>
-        <item x="7"/>
-        <item x="39"/>
-        <item x="8"/>
-        <item x="48"/>
-        <item x="27"/>
-        <item x="9"/>
-        <item x="31"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="49"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="29"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="45"/>
-        <item x="25"/>
-        <item x="30"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="42"/>
-        <item x="33"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="32"/>
-        <item x="46"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="33">
-        <item x="19"/>
-        <item x="5"/>
-        <item x="31"/>
-        <item x="0"/>
-        <item x="16"/>
-        <item x="2"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="28"/>
-        <item x="8"/>
-        <item x="25"/>
-        <item x="4"/>
-        <item x="26"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="29"/>
-        <item x="11"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="30"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="27"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="18"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="20"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="51">
-        <item x="25"/>
-        <item x="0"/>
-        <item x="46"/>
-        <item x="11"/>
-        <item x="30"/>
-        <item x="36"/>
-        <item x="34"/>
-        <item x="12"/>
-        <item x="27"/>
-        <item x="40"/>
-        <item x="28"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="26"/>
-        <item x="42"/>
-        <item x="8"/>
-        <item x="33"/>
-        <item x="5"/>
-        <item x="32"/>
-        <item x="37"/>
-        <item x="31"/>
-        <item x="47"/>
-        <item x="49"/>
-        <item x="19"/>
-        <item x="38"/>
-        <item x="4"/>
-        <item x="48"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="39"/>
-        <item x="41"/>
-        <item x="35"/>
-        <item x="23"/>
-        <item x="16"/>
-        <item x="9"/>
-        <item x="44"/>
-        <item x="29"/>
-        <item x="14"/>
-        <item x="3"/>
-        <item x="24"/>
-        <item x="15"/>
-        <item x="21"/>
-        <item x="10"/>
-        <item x="22"/>
-        <item x="1"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="20"/>
-        <item x="13"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item sd="0" x="0"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="1"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="13"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="Promedio de rebounds_per_game" fld="4" subtotal="average" baseField="13" baseItem="0"/>
-    <dataField name="Promedio de age" fld="2" subtotal="average" baseField="13" baseItem="0"/>
-    <dataField name="Promedio de assists_per_game" fld="5" subtotal="average" baseField="13" baseItem="0"/>
-    <dataField name="Promedio de points_per_game" fld="6" subtotal="average" baseField="13" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="13">
-    <chartFormat chart="5" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -13094,7 +13094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5325BA71-8AED-4306-B8F5-98E33613C031}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17:H18"/>
     </sheetView>
   </sheetViews>
@@ -15495,7 +15495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D4DD31-98BF-4D21-8B68-32B7BA6EC8EC}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="101" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
